--- a/prob2/18.xlsx
+++ b/prob2/18.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pluttan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\prob2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5202E98-600B-AA42-A5A0-30B84304BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="29040" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="495" windowWidth="29040" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
     <sheet name="18" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Перед каждым запуском Робота в каждой клетке квадрата лежит монета достоинством от 1 до 100. Посетив клетку, Робот забирает монету с собой; это также относится к начальной и конечной клеткам маршрута Робота.</t>
   </si>
@@ -40,12 +39,15 @@
   <si>
     <t>Исходные данные представляют собой электронную таблицу размером N × N, каждая ячейка которой соответствует клетке квадрата. Внутренние и внешние стены обозначены утолщёнными линиями.</t>
   </si>
+  <si>
+    <t>мин</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +64,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -160,10 +188,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -176,9 +206,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,44 +515,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.5" customWidth="1"/>
+    <col min="1" max="1" width="126.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="162" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="183.75" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -527,14 +563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>24</v>
       </c>
@@ -596,7 +634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>11</v>
       </c>
@@ -658,7 +696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>6</v>
       </c>
@@ -720,7 +758,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>41</v>
       </c>
@@ -782,7 +820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>36</v>
       </c>
@@ -844,7 +882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>12</v>
       </c>
@@ -906,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -968,7 +1006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>77</v>
       </c>
@@ -1030,7 +1068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>23</v>
       </c>
@@ -1092,7 +1130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>73</v>
       </c>
@@ -1154,7 +1192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>92</v>
       </c>
@@ -1216,7 +1254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>37</v>
       </c>
@@ -1278,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1340,7 +1378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>37</v>
       </c>
@@ -1402,7 +1440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>36</v>
       </c>
@@ -1464,7 +1502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>25</v>
       </c>
@@ -1526,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>38</v>
       </c>
@@ -1588,7 +1626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1650,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -1712,7 +1750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>65</v>
       </c>
@@ -1774,7 +1812,1664 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <f>A23+B1</f>
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:T23" si="0">B23+C1</f>
+        <v>84</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>469</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>569</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="0"/>
+        <v>786</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="0"/>
+        <v>794</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>885</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="0"/>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>A23+A2</f>
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <f>MIN(B23,A24)+B2</f>
+        <v>109</v>
+      </c>
+      <c r="C24">
+        <f>MIN(C23,B24)+C2</f>
+        <v>112</v>
+      </c>
+      <c r="D24">
+        <f>MIN(D23,C24)+D2</f>
+        <v>176</v>
+      </c>
+      <c r="E24">
+        <f>MIN(E23,D24)+E2</f>
+        <v>269</v>
+      </c>
+      <c r="F24">
+        <f>MIN(F23,E24)+F2</f>
+        <v>279</v>
+      </c>
+      <c r="G24">
+        <f>MIN(G23,F24)+G2</f>
+        <v>366</v>
+      </c>
+      <c r="H24">
+        <f>MIN(H23,G24)+H2</f>
+        <v>327</v>
+      </c>
+      <c r="I24">
+        <f>MIN(I23,H24)+I2</f>
+        <v>351</v>
+      </c>
+      <c r="J24">
+        <f>MIN(J23,I24)+J2</f>
+        <v>428</v>
+      </c>
+      <c r="K24">
+        <f>MIN(K23,J24)+K2</f>
+        <v>526</v>
+      </c>
+      <c r="L24">
+        <f>MIN(L23,K24)+L2</f>
+        <v>606</v>
+      </c>
+      <c r="M24">
+        <f>M23+M2</f>
+        <v>651</v>
+      </c>
+      <c r="N24">
+        <f>MIN(N23,M24)+N2</f>
+        <v>724</v>
+      </c>
+      <c r="O24">
+        <f>MIN(O23,N24)+O2</f>
+        <v>694</v>
+      </c>
+      <c r="P24">
+        <f>MIN(P23,O24)+P2</f>
+        <v>697</v>
+      </c>
+      <c r="Q24">
+        <f>MIN(Q23,P24)+Q2</f>
+        <v>709</v>
+      </c>
+      <c r="R24">
+        <f>MIN(R23,Q24)+R2</f>
+        <v>779</v>
+      </c>
+      <c r="S24">
+        <f>MIN(S23,R24)+S2</f>
+        <v>878</v>
+      </c>
+      <c r="T24" s="2">
+        <f>MIN(T23,S24)+T2</f>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" ref="A25:A42" si="1">A24+A3</f>
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <f>MIN(B24,A25)+B3</f>
+        <v>102</v>
+      </c>
+      <c r="C25">
+        <f>MIN(C24,B25)+C3</f>
+        <v>166</v>
+      </c>
+      <c r="D25">
+        <f>MIN(D24,C25)+D3</f>
+        <v>233</v>
+      </c>
+      <c r="E25">
+        <f>MIN(E24,D25)+E3</f>
+        <v>321</v>
+      </c>
+      <c r="F25">
+        <f>MIN(F24,E25)+F3</f>
+        <v>351</v>
+      </c>
+      <c r="G25">
+        <f>MIN(G24,F25)+G3</f>
+        <v>432</v>
+      </c>
+      <c r="H25">
+        <f>MIN(H24,G25)+H3</f>
+        <v>367</v>
+      </c>
+      <c r="I25">
+        <f>MIN(I24,H25)+I3</f>
+        <v>421</v>
+      </c>
+      <c r="J25">
+        <f>MIN(J24,I25)+J3</f>
+        <v>519</v>
+      </c>
+      <c r="K25">
+        <f>MIN(K24,J25)+K3</f>
+        <v>538</v>
+      </c>
+      <c r="L25">
+        <f>MIN(L24,K25)+L3</f>
+        <v>572</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M33" si="2">M24+M3</f>
+        <v>696</v>
+      </c>
+      <c r="N25">
+        <f>MIN(N24,M25)+N3</f>
+        <v>748</v>
+      </c>
+      <c r="O25">
+        <f>MIN(O24,N25)+O3</f>
+        <v>725</v>
+      </c>
+      <c r="P25">
+        <f>MIN(P24,O25)+P3</f>
+        <v>764</v>
+      </c>
+      <c r="Q25">
+        <f>MIN(Q24,P25)+Q3</f>
+        <v>716</v>
+      </c>
+      <c r="R25">
+        <f>MIN(R24,Q25)+R3</f>
+        <v>798</v>
+      </c>
+      <c r="S25">
+        <f>MIN(S24,R25)+S3</f>
+        <v>856</v>
+      </c>
+      <c r="T25" s="2">
+        <f>MIN(T24,S25)+T3</f>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <f>MIN(B25,A26)+B4</f>
+        <v>165</v>
+      </c>
+      <c r="C26">
+        <f>MIN(C25,B26)+C4</f>
+        <v>221</v>
+      </c>
+      <c r="D26">
+        <f>MIN(D25,C26)+D4</f>
+        <v>295</v>
+      </c>
+      <c r="E26">
+        <f>MIN(E25,D26)+E4</f>
+        <v>302</v>
+      </c>
+      <c r="F26">
+        <f>MIN(F25,E26)+F4</f>
+        <v>382</v>
+      </c>
+      <c r="G26" s="2">
+        <f>MIN(G25,F26)+G4</f>
+        <v>462</v>
+      </c>
+      <c r="H26" s="10">
+        <f>H25+H4</f>
+        <v>405</v>
+      </c>
+      <c r="I26" s="10">
+        <f>MIN(H26,I25)+I4</f>
+        <v>502</v>
+      </c>
+      <c r="J26">
+        <f>MIN(I26,J25)+J4</f>
+        <v>590</v>
+      </c>
+      <c r="K26">
+        <f>MIN(J26,K25)+K4</f>
+        <v>573</v>
+      </c>
+      <c r="L26" s="2">
+        <f>MIN(K26,L25)+L4</f>
+        <v>604</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="N26">
+        <f>MIN(N25,M26)+N4</f>
+        <v>755</v>
+      </c>
+      <c r="O26">
+        <f>MIN(O25,N26)+O4</f>
+        <v>790</v>
+      </c>
+      <c r="P26" s="7">
+        <f>MIN(P25,O26)+P4</f>
+        <v>841</v>
+      </c>
+      <c r="Q26" s="7">
+        <f>MIN(Q25,P26)+Q4</f>
+        <v>806</v>
+      </c>
+      <c r="R26" s="7">
+        <f>MIN(R25,Q26)+R4</f>
+        <v>812</v>
+      </c>
+      <c r="S26" s="7">
+        <f>MIN(S25,R26)+S4</f>
+        <v>869</v>
+      </c>
+      <c r="T26" s="2">
+        <f>MIN(T25,S26)+T4</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B27">
+        <f>MIN(B26,A27)+B5</f>
+        <v>215</v>
+      </c>
+      <c r="C27">
+        <f>MIN(C26,B27)+C5</f>
+        <v>269</v>
+      </c>
+      <c r="D27">
+        <f>MIN(D26,C27)+D5</f>
+        <v>285</v>
+      </c>
+      <c r="E27">
+        <f>MIN(E26,D27)+E5</f>
+        <v>353</v>
+      </c>
+      <c r="F27">
+        <f>MIN(F26,E27)+F5</f>
+        <v>450</v>
+      </c>
+      <c r="G27" s="2">
+        <f>MIN(G26,F27)+G5</f>
+        <v>532</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" ref="H27:H41" si="3">H26+H5</f>
+        <v>437</v>
+      </c>
+      <c r="I27">
+        <f>MIN(H27,I26)+I5</f>
+        <v>456</v>
+      </c>
+      <c r="J27">
+        <f>MIN(I27,J26)+J5</f>
+        <v>462</v>
+      </c>
+      <c r="K27">
+        <f>MIN(J27,K26)+K5</f>
+        <v>559</v>
+      </c>
+      <c r="L27" s="2">
+        <f>MIN(K27,L26)+L5</f>
+        <v>622</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>857</v>
+      </c>
+      <c r="N27">
+        <f>MIN(N26,M27)+N5</f>
+        <v>763</v>
+      </c>
+      <c r="O27">
+        <f>MIN(O26,N27)+O5</f>
+        <v>818</v>
+      </c>
+      <c r="P27">
+        <f>O27+P5</f>
+        <v>903</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27:S27" si="4">P27+Q5</f>
+        <v>930</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>966</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="4"/>
+        <v>975</v>
+      </c>
+      <c r="T27" s="2">
+        <f>T26+T5</f>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B28">
+        <f>MIN(B27,A28)+B6</f>
+        <v>210</v>
+      </c>
+      <c r="C28">
+        <f>MIN(C27,B28)+C6</f>
+        <v>298</v>
+      </c>
+      <c r="D28">
+        <f>MIN(D27,C28)+D6</f>
+        <v>335</v>
+      </c>
+      <c r="E28">
+        <f>MIN(E27,D28)+E6</f>
+        <v>433</v>
+      </c>
+      <c r="F28">
+        <f>MIN(F27,E28)+F6</f>
+        <v>435</v>
+      </c>
+      <c r="G28" s="2">
+        <f>MIN(G27,F28)+G6</f>
+        <v>466</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+      <c r="I28">
+        <f>MIN(H28,I27)+I6</f>
+        <v>545</v>
+      </c>
+      <c r="J28">
+        <f>MIN(I28,J27)+J6</f>
+        <v>475</v>
+      </c>
+      <c r="K28">
+        <f>MIN(J28,K27)+K6</f>
+        <v>498</v>
+      </c>
+      <c r="L28" s="2">
+        <f>MIN(K28,L27)+L6</f>
+        <v>562</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>868</v>
+      </c>
+      <c r="N28">
+        <f>MIN(N27,M28)+N6</f>
+        <v>828</v>
+      </c>
+      <c r="O28">
+        <f>MIN(O27,N28)+O6</f>
+        <v>857</v>
+      </c>
+      <c r="P28">
+        <f>MIN(P27,O28)+P6</f>
+        <v>938</v>
+      </c>
+      <c r="Q28">
+        <f>MIN(Q27,P28)+Q6</f>
+        <v>960</v>
+      </c>
+      <c r="R28">
+        <f>MIN(R27,Q28)+R6</f>
+        <v>978</v>
+      </c>
+      <c r="S28" s="2">
+        <f>MIN(S27,R28)+S6</f>
+        <v>977</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" ref="T28:T33" si="5">T27+T6</f>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <f>MIN(B28,A29)+B7</f>
+        <v>136</v>
+      </c>
+      <c r="C29">
+        <f>MIN(C28,B29)+C7</f>
+        <v>161</v>
+      </c>
+      <c r="D29">
+        <f>MIN(D28,C29)+D7</f>
+        <v>219</v>
+      </c>
+      <c r="E29">
+        <f>MIN(E28,D29)+E7</f>
+        <v>223</v>
+      </c>
+      <c r="F29">
+        <f>MIN(F28,E29)+F7</f>
+        <v>317</v>
+      </c>
+      <c r="G29" s="2">
+        <f>MIN(G28,F29)+G7</f>
+        <v>394</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="I29">
+        <f>MIN(H29,I28)+I7</f>
+        <v>564</v>
+      </c>
+      <c r="J29">
+        <f>MIN(I29,J28)+J7</f>
+        <v>506</v>
+      </c>
+      <c r="K29">
+        <f>MIN(J29,K28)+K7</f>
+        <v>551</v>
+      </c>
+      <c r="L29" s="2">
+        <f>MIN(K29,L28)+L7</f>
+        <v>611</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>944</v>
+      </c>
+      <c r="N29">
+        <f>MIN(N28,M29)+N7</f>
+        <v>908</v>
+      </c>
+      <c r="O29">
+        <f>MIN(O28,N29)+O7</f>
+        <v>913</v>
+      </c>
+      <c r="P29">
+        <f>MIN(P28,O29)+P7</f>
+        <v>985</v>
+      </c>
+      <c r="Q29">
+        <f>MIN(Q28,P29)+Q7</f>
+        <v>1050</v>
+      </c>
+      <c r="R29">
+        <f>MIN(R28,Q29)+R7</f>
+        <v>999</v>
+      </c>
+      <c r="S29" s="2">
+        <f>MIN(S28,R29)+S7</f>
+        <v>1057</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="5"/>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="B30">
+        <f>MIN(B29,A30)+B8</f>
+        <v>141</v>
+      </c>
+      <c r="C30">
+        <f>MIN(C29,B30)+C8</f>
+        <v>158</v>
+      </c>
+      <c r="D30">
+        <f>MIN(D29,C30)+D8</f>
+        <v>230</v>
+      </c>
+      <c r="E30">
+        <f>MIN(E29,D30)+E8</f>
+        <v>255</v>
+      </c>
+      <c r="F30">
+        <f>MIN(F29,E30)+F8</f>
+        <v>293</v>
+      </c>
+      <c r="G30" s="2">
+        <f>MIN(G29,F30)+G8</f>
+        <v>302</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="3"/>
+        <v>666</v>
+      </c>
+      <c r="I30">
+        <f>MIN(H30,I29)+I8</f>
+        <v>634</v>
+      </c>
+      <c r="J30">
+        <f>MIN(I30,J29)+J8</f>
+        <v>510</v>
+      </c>
+      <c r="K30">
+        <f>MIN(J30,K29)+K8</f>
+        <v>544</v>
+      </c>
+      <c r="L30" s="2">
+        <f>MIN(K30,L29)+L8</f>
+        <v>551</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>1015</v>
+      </c>
+      <c r="N30">
+        <f>MIN(N29,M30)+N8</f>
+        <v>916</v>
+      </c>
+      <c r="O30">
+        <f>MIN(O29,N30)+O8</f>
+        <v>1001</v>
+      </c>
+      <c r="P30">
+        <f>MIN(P29,O30)+P8</f>
+        <v>1048</v>
+      </c>
+      <c r="Q30">
+        <f>MIN(Q29,P30)+Q8</f>
+        <v>1101</v>
+      </c>
+      <c r="R30">
+        <f>MIN(R29,Q30)+R8</f>
+        <v>1024</v>
+      </c>
+      <c r="S30" s="2">
+        <f>MIN(S29,R30)+S8</f>
+        <v>1050</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="5"/>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="B31">
+        <f>MIN(B30,A31)+B9</f>
+        <v>190</v>
+      </c>
+      <c r="C31">
+        <f>MIN(C30,B31)+C9</f>
+        <v>255</v>
+      </c>
+      <c r="D31">
+        <f>MIN(D30,C31)+D9</f>
+        <v>269</v>
+      </c>
+      <c r="E31">
+        <f>MIN(E30,D31)+E9</f>
+        <v>315</v>
+      </c>
+      <c r="F31">
+        <f>MIN(F30,E31)+F9</f>
+        <v>296</v>
+      </c>
+      <c r="G31" s="2">
+        <f>MIN(G30,F31)+G9</f>
+        <v>340</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="3"/>
+        <v>712</v>
+      </c>
+      <c r="I31">
+        <f>MIN(H31,I30)+I9</f>
+        <v>728</v>
+      </c>
+      <c r="J31">
+        <f>MIN(I31,J30)+J9</f>
+        <v>535</v>
+      </c>
+      <c r="K31">
+        <f>MIN(J31,K30)+K9</f>
+        <v>593</v>
+      </c>
+      <c r="L31" s="2">
+        <f>MIN(K31,L30)+L9</f>
+        <v>557</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>1054</v>
+      </c>
+      <c r="N31">
+        <f>MIN(N30,M31)+N9</f>
+        <v>940</v>
+      </c>
+      <c r="O31">
+        <f>MIN(O30,N31)+O9</f>
+        <v>1034</v>
+      </c>
+      <c r="P31">
+        <f>MIN(P30,O31)+P9</f>
+        <v>1083</v>
+      </c>
+      <c r="Q31">
+        <f>MIN(Q30,P31)+Q9</f>
+        <v>1168</v>
+      </c>
+      <c r="R31">
+        <f>MIN(R30,Q31)+R9</f>
+        <v>1104</v>
+      </c>
+      <c r="S31" s="2">
+        <f>MIN(S30,R31)+S9</f>
+        <v>1081</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="5"/>
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="B32">
+        <f>MIN(B31,A32)+B10</f>
+        <v>256</v>
+      </c>
+      <c r="C32">
+        <f>MIN(C31,B32)+C10</f>
+        <v>303</v>
+      </c>
+      <c r="D32">
+        <f>MIN(D31,C32)+D10</f>
+        <v>355</v>
+      </c>
+      <c r="E32">
+        <f>MIN(E31,D32)+E10</f>
+        <v>354</v>
+      </c>
+      <c r="F32">
+        <f>MIN(F31,E32)+F10</f>
+        <v>335</v>
+      </c>
+      <c r="G32" s="2">
+        <f>MIN(G31,F32)+G10</f>
+        <v>346</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="3"/>
+        <v>748</v>
+      </c>
+      <c r="I32">
+        <f>MIN(H32,I31)+I10</f>
+        <v>750</v>
+      </c>
+      <c r="J32">
+        <f>MIN(I32,J31)+J10</f>
+        <v>566</v>
+      </c>
+      <c r="K32">
+        <f>MIN(J32,K31)+K10</f>
+        <v>609</v>
+      </c>
+      <c r="L32" s="2">
+        <f>MIN(K32,L31)+L10</f>
+        <v>637</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>1103</v>
+      </c>
+      <c r="N32">
+        <f>MIN(N31,M32)+N10</f>
+        <v>1031</v>
+      </c>
+      <c r="O32">
+        <f>MIN(O31,N32)+O10</f>
+        <v>1082</v>
+      </c>
+      <c r="P32">
+        <f>MIN(P31,O32)+P10</f>
+        <v>1115</v>
+      </c>
+      <c r="Q32">
+        <f>MIN(Q31,P32)+Q10</f>
+        <v>1199</v>
+      </c>
+      <c r="R32">
+        <f>MIN(R31,Q32)+R10</f>
+        <v>1161</v>
+      </c>
+      <c r="S32" s="2">
+        <f>MIN(S31,R32)+S10</f>
+        <v>1107</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" si="5"/>
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="B33">
+        <f>MIN(B32,A33)+B11</f>
+        <v>267</v>
+      </c>
+      <c r="C33">
+        <f>MIN(C32,B33)+C11</f>
+        <v>335</v>
+      </c>
+      <c r="D33">
+        <f>MIN(D32,C33)+D11</f>
+        <v>382</v>
+      </c>
+      <c r="E33">
+        <f>MIN(E32,D33)+E11</f>
+        <v>453</v>
+      </c>
+      <c r="F33">
+        <f>MIN(F32,E33)+F11</f>
+        <v>400</v>
+      </c>
+      <c r="G33" s="2">
+        <f>MIN(G32,F33)+G11</f>
+        <v>381</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="3"/>
+        <v>837</v>
+      </c>
+      <c r="I33">
+        <f>MIN(H33,I32)+I11</f>
+        <v>845</v>
+      </c>
+      <c r="J33" s="7">
+        <f>MIN(I33,J32)+J11</f>
+        <v>593</v>
+      </c>
+      <c r="K33" s="7">
+        <f>MIN(J33,K32)+K11</f>
+        <v>643</v>
+      </c>
+      <c r="L33" s="12">
+        <f>MIN(K33,L32)+L11</f>
+        <v>695</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>1173</v>
+      </c>
+      <c r="N33">
+        <f>MIN(N32,M33)+N11</f>
+        <v>1091</v>
+      </c>
+      <c r="O33">
+        <f>MIN(O32,N33)+O11</f>
+        <v>1140</v>
+      </c>
+      <c r="P33">
+        <f>MIN(P32,O33)+P11</f>
+        <v>1118</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>MIN(Q32,P33)+Q11</f>
+        <v>1163</v>
+      </c>
+      <c r="R33" s="10">
+        <f>R32+R11</f>
+        <v>1223</v>
+      </c>
+      <c r="S33" s="11">
+        <f>MIN(R33,S32)+S11</f>
+        <v>1177</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="5"/>
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+      <c r="B34">
+        <f>MIN(B33,A34)+B12</f>
+        <v>307</v>
+      </c>
+      <c r="C34">
+        <f>MIN(C33,B34)+C12</f>
+        <v>402</v>
+      </c>
+      <c r="D34" s="2">
+        <f>MIN(D33,C34)+D12</f>
+        <v>461</v>
+      </c>
+      <c r="E34">
+        <f>E33+E12</f>
+        <v>527</v>
+      </c>
+      <c r="F34">
+        <f>MIN(F33,E34)+F12</f>
+        <v>448</v>
+      </c>
+      <c r="G34" s="2">
+        <f>MIN(G33,F34)+G12</f>
+        <v>410</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="3"/>
+        <v>923</v>
+      </c>
+      <c r="I34">
+        <f>MIN(H34,I33)+I12</f>
+        <v>862</v>
+      </c>
+      <c r="J34" s="10">
+        <f>I34+J12</f>
+        <v>906</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:L34" si="6">J34+K12</f>
+        <v>942</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>1038</v>
+      </c>
+      <c r="M34">
+        <f>MIN(M33,L34)+M12</f>
+        <v>1039</v>
+      </c>
+      <c r="N34">
+        <f>MIN(N33,M34)+N12</f>
+        <v>1065</v>
+      </c>
+      <c r="O34">
+        <f>MIN(O33,N34)+O12</f>
+        <v>1078</v>
+      </c>
+      <c r="P34">
+        <f>MIN(P33,O34)+P12</f>
+        <v>1146</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>MIN(Q33,P34)+Q12</f>
+        <v>1211</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:R40" si="7">R33+R12</f>
+        <v>1301</v>
+      </c>
+      <c r="S34">
+        <f>MIN(R34,S33)+S12</f>
+        <v>1233</v>
+      </c>
+      <c r="T34" s="2">
+        <f>MIN(S34,T33)+T12</f>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="1"/>
+        <v>442</v>
+      </c>
+      <c r="B35">
+        <f>MIN(B34,A35)+B13</f>
+        <v>315</v>
+      </c>
+      <c r="C35">
+        <f>MIN(C34,B35)+C13</f>
+        <v>397</v>
+      </c>
+      <c r="D35" s="2">
+        <f>MIN(D34,C35)+D13</f>
+        <v>460</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E38" si="8">E34+E13</f>
+        <v>539</v>
+      </c>
+      <c r="F35">
+        <f>MIN(F34,E35)+F13</f>
+        <v>504</v>
+      </c>
+      <c r="G35" s="2">
+        <f>MIN(G34,F35)+G13</f>
+        <v>458</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="3"/>
+        <v>1022</v>
+      </c>
+      <c r="I35">
+        <f>MIN(H35,I34)+I13</f>
+        <v>904</v>
+      </c>
+      <c r="J35">
+        <f>MIN(I35,J34)+J13</f>
+        <v>1004</v>
+      </c>
+      <c r="K35">
+        <f>MIN(J35,K34)+K13</f>
+        <v>989</v>
+      </c>
+      <c r="L35">
+        <f>MIN(K35,L34)+L13</f>
+        <v>1003</v>
+      </c>
+      <c r="M35">
+        <f>MIN(M34,L35)+M13</f>
+        <v>1058</v>
+      </c>
+      <c r="N35">
+        <f>MIN(N34,M35)+N13</f>
+        <v>1072</v>
+      </c>
+      <c r="O35">
+        <f>MIN(O34,N35)+O13</f>
+        <v>1098</v>
+      </c>
+      <c r="P35">
+        <f>MIN(P34,O35)+P13</f>
+        <v>1164</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>MIN(Q34,P35)+Q13</f>
+        <v>1257</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>1302</v>
+      </c>
+      <c r="S35">
+        <f>MIN(R35,S34)+S13</f>
+        <v>1251</v>
+      </c>
+      <c r="T35" s="2">
+        <f>MIN(S35,T34)+T13</f>
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="1"/>
+        <v>479</v>
+      </c>
+      <c r="B36">
+        <f>MIN(B35,A36)+B14</f>
+        <v>373</v>
+      </c>
+      <c r="C36">
+        <f>MIN(C35,B36)+C14</f>
+        <v>437</v>
+      </c>
+      <c r="D36" s="2">
+        <f>MIN(D35,C36)+D14</f>
+        <v>506</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>636</v>
+      </c>
+      <c r="F36">
+        <f>MIN(F35,E36)+F14</f>
+        <v>556</v>
+      </c>
+      <c r="G36" s="2">
+        <f>MIN(G35,F36)+G14</f>
+        <v>518</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="3"/>
+        <v>1099</v>
+      </c>
+      <c r="I36">
+        <f>MIN(H36,I35)+I14</f>
+        <v>923</v>
+      </c>
+      <c r="J36">
+        <f>MIN(I36,J35)+J14</f>
+        <v>951</v>
+      </c>
+      <c r="K36">
+        <f>MIN(J36,K35)+K14</f>
+        <v>990</v>
+      </c>
+      <c r="L36">
+        <f>MIN(K36,L35)+L14</f>
+        <v>1039</v>
+      </c>
+      <c r="M36">
+        <f>MIN(M35,L36)+M14</f>
+        <v>1072</v>
+      </c>
+      <c r="N36">
+        <f>MIN(N35,M36)+N14</f>
+        <v>1123</v>
+      </c>
+      <c r="O36">
+        <f>MIN(O35,N36)+O14</f>
+        <v>1162</v>
+      </c>
+      <c r="P36">
+        <f>MIN(P35,O36)+P14</f>
+        <v>1246</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>MIN(Q35,P36)+Q14</f>
+        <v>1310</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>1312</v>
+      </c>
+      <c r="S36">
+        <f>MIN(R36,S35)+S14</f>
+        <v>1308</v>
+      </c>
+      <c r="T36" s="2">
+        <f>MIN(S36,T35)+T14</f>
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+      <c r="B37">
+        <f>MIN(B36,A37)+B15</f>
+        <v>419</v>
+      </c>
+      <c r="C37">
+        <f>MIN(C36,B37)+C15</f>
+        <v>489</v>
+      </c>
+      <c r="D37" s="2">
+        <f>MIN(D36,C37)+D15</f>
+        <v>578</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="8"/>
+        <v>667</v>
+      </c>
+      <c r="F37">
+        <f>MIN(F36,E37)+F15</f>
+        <v>630</v>
+      </c>
+      <c r="G37" s="2">
+        <f>MIN(G36,F37)+G15</f>
+        <v>611</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+      <c r="I37">
+        <f>MIN(H37,I36)+I15</f>
+        <v>963</v>
+      </c>
+      <c r="J37">
+        <f>MIN(I37,J36)+J15</f>
+        <v>987</v>
+      </c>
+      <c r="K37">
+        <f>MIN(J37,K36)+K15</f>
+        <v>1024</v>
+      </c>
+      <c r="L37">
+        <f>MIN(K37,L36)+L15</f>
+        <v>1110</v>
+      </c>
+      <c r="M37">
+        <f>MIN(M36,L37)+M15</f>
+        <v>1129</v>
+      </c>
+      <c r="N37">
+        <f>MIN(N36,M37)+N15</f>
+        <v>1185</v>
+      </c>
+      <c r="O37">
+        <f>MIN(O36,N37)+O15</f>
+        <v>1238</v>
+      </c>
+      <c r="P37">
+        <f>MIN(P36,O37)+P15</f>
+        <v>1330</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>MIN(Q36,P37)+Q15</f>
+        <v>1369</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>1329</v>
+      </c>
+      <c r="S37">
+        <f>MIN(R37,S36)+S15</f>
+        <v>1356</v>
+      </c>
+      <c r="T37" s="2">
+        <f>MIN(S37,T36)+T15</f>
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="B38" s="7">
+        <f>MIN(B37,A38)+B16</f>
+        <v>420</v>
+      </c>
+      <c r="C38" s="7">
+        <f>MIN(C37,B38)+C16</f>
+        <v>457</v>
+      </c>
+      <c r="D38" s="12">
+        <f>MIN(D37,C38)+D16</f>
+        <v>481</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="8"/>
+        <v>754</v>
+      </c>
+      <c r="F38">
+        <f>MIN(F37,E38)+F16</f>
+        <v>673</v>
+      </c>
+      <c r="G38" s="2">
+        <f>MIN(G37,F38)+G16</f>
+        <v>660</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="3"/>
+        <v>1205</v>
+      </c>
+      <c r="I38">
+        <f>MIN(H38,I37)+I16</f>
+        <v>993</v>
+      </c>
+      <c r="J38">
+        <f>MIN(I38,J37)+J16</f>
+        <v>994</v>
+      </c>
+      <c r="K38">
+        <f>MIN(J38,K37)+K16</f>
+        <v>1033</v>
+      </c>
+      <c r="L38">
+        <f>MIN(K38,L37)+L16</f>
+        <v>1065</v>
+      </c>
+      <c r="M38">
+        <f>MIN(M37,L38)+M16</f>
+        <v>1147</v>
+      </c>
+      <c r="N38">
+        <f>MIN(N37,M38)+N16</f>
+        <v>1157</v>
+      </c>
+      <c r="O38">
+        <f>MIN(O37,N38)+O16</f>
+        <v>1195</v>
+      </c>
+      <c r="P38">
+        <f>MIN(P37,O38)+P16</f>
+        <v>1212</v>
+      </c>
+      <c r="Q38" s="2">
+        <f>MIN(Q37,P38)+Q16</f>
+        <v>1235</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>1393</v>
+      </c>
+      <c r="S38">
+        <f>MIN(R38,S37)+S16</f>
+        <v>1398</v>
+      </c>
+      <c r="T38" s="2">
+        <f>MIN(S38,T37)+T16</f>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="1"/>
+        <v>578</v>
+      </c>
+      <c r="B39" s="10">
+        <f>A39+B17</f>
+        <v>625</v>
+      </c>
+      <c r="C39" s="10">
+        <f t="shared" ref="C39:D39" si="9">B39+C17</f>
+        <v>653</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="9"/>
+        <v>690</v>
+      </c>
+      <c r="E39">
+        <f>MIN(D39,E38)+E17</f>
+        <v>702</v>
+      </c>
+      <c r="F39">
+        <f>MIN(E39,F38)+F17</f>
+        <v>724</v>
+      </c>
+      <c r="G39" s="2">
+        <f>MIN(F39,G38)+G17</f>
+        <v>672</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="3"/>
+        <v>1301</v>
+      </c>
+      <c r="I39">
+        <f>MIN(H39,I38)+I17</f>
+        <v>1064</v>
+      </c>
+      <c r="J39">
+        <f>MIN(I39,J38)+J17</f>
+        <v>1022</v>
+      </c>
+      <c r="K39">
+        <f>MIN(J39,K38)+K17</f>
+        <v>1085</v>
+      </c>
+      <c r="L39">
+        <f>MIN(K39,L38)+L17</f>
+        <v>1160</v>
+      </c>
+      <c r="M39">
+        <f>MIN(M38,L39)+M17</f>
+        <v>1187</v>
+      </c>
+      <c r="N39">
+        <f>MIN(N38,M39)+N17</f>
+        <v>1207</v>
+      </c>
+      <c r="O39">
+        <f>MIN(O38,N39)+O17</f>
+        <v>1222</v>
+      </c>
+      <c r="P39">
+        <f>MIN(P38,O39)+P17</f>
+        <v>1269</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>MIN(Q38,P39)+Q17</f>
+        <v>1268</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="7"/>
+        <v>1413</v>
+      </c>
+      <c r="S39">
+        <f>MIN(R39,S38)+S17</f>
+        <v>1402</v>
+      </c>
+      <c r="T39" s="2">
+        <f>MIN(S39,T38)+T17</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <f t="shared" si="1"/>
+        <v>593</v>
+      </c>
+      <c r="B40" s="10">
+        <f>MIN(B39,A40)+B18</f>
+        <v>661</v>
+      </c>
+      <c r="C40" s="10">
+        <f>MIN(C39,B40)+C18</f>
+        <v>694</v>
+      </c>
+      <c r="D40" s="10">
+        <f>MIN(D39,C40)+D18</f>
+        <v>751</v>
+      </c>
+      <c r="E40">
+        <f>MIN(D40,E39)+E18</f>
+        <v>747</v>
+      </c>
+      <c r="F40">
+        <f>MIN(E40,F39)+F18</f>
+        <v>731</v>
+      </c>
+      <c r="G40" s="2">
+        <f>MIN(F40,G39)+G18</f>
+        <v>679</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="3"/>
+        <v>1311</v>
+      </c>
+      <c r="I40">
+        <f>MIN(H40,I39)+I18</f>
+        <v>1125</v>
+      </c>
+      <c r="J40">
+        <f>MIN(I40,J39)+J18</f>
+        <v>1036</v>
+      </c>
+      <c r="K40">
+        <f>MIN(J40,K39)+K18</f>
+        <v>1051</v>
+      </c>
+      <c r="L40">
+        <f>MIN(K40,L39)+L18</f>
+        <v>1144</v>
+      </c>
+      <c r="M40" s="7">
+        <f>MIN(M39,L40)+M18</f>
+        <v>1238</v>
+      </c>
+      <c r="N40">
+        <f>MIN(N39,M40)+N18</f>
+        <v>1239</v>
+      </c>
+      <c r="O40">
+        <f>MIN(O39,N40)+O18</f>
+        <v>1319</v>
+      </c>
+      <c r="P40" s="7">
+        <f>MIN(P39,O40)+P18</f>
+        <v>1343</v>
+      </c>
+      <c r="Q40" s="12">
+        <f>MIN(Q39,P40)+Q18</f>
+        <v>1365</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>1486</v>
+      </c>
+      <c r="S40">
+        <f>MIN(R40,S39)+S18</f>
+        <v>1465</v>
+      </c>
+      <c r="T40" s="2">
+        <f>MIN(S40,T39)+T18</f>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <f t="shared" si="1"/>
+        <v>603</v>
+      </c>
+      <c r="B41" s="10">
+        <f>MIN(B40,A41)+B19</f>
+        <v>626</v>
+      </c>
+      <c r="C41" s="10">
+        <f>MIN(C40,B41)+C19</f>
+        <v>676</v>
+      </c>
+      <c r="D41" s="10">
+        <f>MIN(D40,C41)+D19</f>
+        <v>766</v>
+      </c>
+      <c r="E41" s="7">
+        <f>MIN(D41,E40)+E19</f>
+        <v>823</v>
+      </c>
+      <c r="F41" s="7">
+        <f>MIN(E41,F40)+F19</f>
+        <v>813</v>
+      </c>
+      <c r="G41" s="12">
+        <f>MIN(F41,G40)+G19</f>
+        <v>681</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="3"/>
+        <v>1401</v>
+      </c>
+      <c r="I41">
+        <f>MIN(H41,I40)+I19</f>
+        <v>1179</v>
+      </c>
+      <c r="J41">
+        <f>MIN(I41,J40)+J19</f>
+        <v>1111</v>
+      </c>
+      <c r="K41">
+        <f>MIN(J41,K40)+K19</f>
+        <v>1053</v>
+      </c>
+      <c r="L41">
+        <f>MIN(K41,L40)+L19</f>
+        <v>1058</v>
+      </c>
+      <c r="M41" s="10">
+        <f>L41+M19</f>
+        <v>1086</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" ref="N41:Q41" si="10">M41+N19</f>
+        <v>1173</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="10"/>
+        <v>1194</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="10"/>
+        <v>1269</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="R41">
+        <f>MIN(Q41,R40)+R19</f>
+        <v>1424</v>
+      </c>
+      <c r="S41">
+        <f>MIN(R41,S40)+S19</f>
+        <v>1471</v>
+      </c>
+      <c r="T41" s="2">
+        <f>MIN(S41,T40)+T19</f>
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <f t="shared" si="1"/>
+        <v>668</v>
+      </c>
+      <c r="B42" s="10">
+        <f>MIN(B41,A42)+B20</f>
+        <v>693</v>
+      </c>
+      <c r="C42" s="10">
+        <f>MIN(C41,B42)+C20</f>
+        <v>687</v>
+      </c>
+      <c r="D42" s="10">
+        <f>MIN(D41,C42)+D20</f>
+        <v>709</v>
+      </c>
+      <c r="E42" s="7">
+        <f>D42+E20</f>
+        <v>778</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" ref="F42:G42" si="11">E42+F20</f>
+        <v>833</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="11"/>
+        <v>870</v>
+      </c>
+      <c r="H42" s="7">
+        <f>MIN(G42,H41)+H20</f>
+        <v>880</v>
+      </c>
+      <c r="I42">
+        <f>MIN(H42,I41)+I20</f>
+        <v>953</v>
+      </c>
+      <c r="J42">
+        <f>MIN(I42,J41)+J20</f>
+        <v>1042</v>
+      </c>
+      <c r="K42">
+        <f>MIN(J42,K41)+K20</f>
+        <v>1111</v>
+      </c>
+      <c r="L42">
+        <f>MIN(K42,L41)+L20</f>
+        <v>1138</v>
+      </c>
+      <c r="M42" s="7">
+        <f>MIN(L42,M41)+M20</f>
+        <v>1165</v>
+      </c>
+      <c r="N42" s="7">
+        <f>MIN(M42,N41)+N20</f>
+        <v>1249</v>
+      </c>
+      <c r="O42" s="7">
+        <f>MIN(N42,O41)+O20</f>
+        <v>1221</v>
+      </c>
+      <c r="P42" s="7">
+        <f>MIN(O42,P41)+P20</f>
+        <v>1270</v>
+      </c>
+      <c r="Q42" s="7">
+        <f>MIN(P42,Q41)+Q20</f>
+        <v>1302</v>
+      </c>
+      <c r="R42" s="7">
+        <f>MIN(Q42,R41)+R20</f>
+        <v>1391</v>
+      </c>
+      <c r="S42" s="7">
+        <f>MIN(R42,S41)+S20</f>
+        <v>1400</v>
+      </c>
+      <c r="T42" s="12">
+        <f>MIN(S42,T41)+T20</f>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>481</v>
+      </c>
+      <c r="B46" s="13">
+        <v>2404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
